--- a/data/raw_data_before_2020/2015/permits-issued-by-county-2015.xlsx
+++ b/data/raw_data_before_2020/2015/permits-issued-by-county-2015.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data_before_2020\2015\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C35EA5-F1A2-4DD6-B299-454EF4B0ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="7680"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="County" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">County!$A$1:$H$33</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -128,12 +148,18 @@
   </si>
   <si>
     <t>United States of America</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,6 +228,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -249,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +311,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,6 +363,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +571,7 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,8 +593,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2015</v>
       </c>
@@ -553,7 +619,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>32</v>
@@ -575,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -597,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -619,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -641,7 +707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -663,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -685,7 +751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>31</v>
@@ -706,8 +772,11 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -729,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>34</v>
@@ -750,8 +819,11 @@
       <c r="G11" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>35</v>
@@ -772,8 +844,11 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -795,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -817,7 +892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>15</v>
@@ -839,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
@@ -861,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
@@ -883,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -905,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -927,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -949,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>21</v>
@@ -971,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>22</v>
@@ -993,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -1015,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>24</v>
@@ -1037,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>25</v>
@@ -1059,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>26</v>
@@ -1081,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>27</v>
@@ -1103,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>36</v>
@@ -1124,8 +1199,11 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>37</v>
@@ -1146,8 +1224,11 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>28</v>
@@ -1169,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>29</v>
@@ -1191,7 +1272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>30</v>
@@ -1236,6 +1317,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
